--- a/va_facility_data_2025-02-20/Guayama VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Guayama%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Guayama VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Guayama%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd95e2a4407584ec28d5e000860153561"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R851c7818f4244c4eba2cf0eb36bea7d0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdca1e9705bfe472aae4cbbad780b469c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf322c4ded1814852b284f579a0bd893f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra817cb0c7ece4970a7aa29fabf54e28f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc843e917e38f42adbe9d0677c8521fef"/>
   </x:sheets>
 </x:workbook>
 </file>
